--- a/docentes/Flores Ovalle Victor - Estadisticos 2020.xlsx
+++ b/docentes/Flores Ovalle Victor - Estadisticos 2020.xlsx
@@ -766,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Flores Ovalle Victor - Estadisticos 2020.xlsx
+++ b/docentes/Flores Ovalle Victor - Estadisticos 2020.xlsx
@@ -73,13 +73,13 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>JOEL EDUARDO</t>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>NARANJO</t>
+  </si>
+  <si>
+    <t>MARGARITA JAZMIN</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920248</v>
+        <v>17330051920305</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -760,10 +760,10 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>

--- a/docentes/Flores Ovalle Victor - Estadisticos 2020.xlsx
+++ b/docentes/Flores Ovalle Victor - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Mat</t>
   </si>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>NARANJO</t>
-  </si>
-  <si>
-    <t>MARGARITA JAZMIN</t>
   </si>
 </sst>
 </file>
@@ -483,19 +474,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>59.38</v>
+        <v>65.63</v>
       </c>
       <c r="H2">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -509,10 +500,10 @@
         <v>25</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -521,7 +512,7 @@
         <v>72</v>
       </c>
       <c r="H3">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
@@ -577,16 +568,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>59.38</v>
+      </c>
+      <c r="H2">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,16 +594,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="H3">
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -665,19 +662,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>59.38</v>
+        <v>68.75</v>
       </c>
       <c r="H2">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -691,10 +688,10 @@
         <v>25</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -703,7 +700,7 @@
         <v>72</v>
       </c>
       <c r="H3">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +710,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -746,29 +743,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>17330051920305</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Flores Ovalle Victor - Estadisticos 2020.xlsx
+++ b/docentes/Flores Ovalle Victor - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,39 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>CANCINO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>ISIDRO</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>JOEL EDUARDO</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
   </si>
 </sst>
 </file>
@@ -710,7 +743,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -743,6 +776,98 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Flores Ovalle Victor - Estadisticos 2020.xlsx
+++ b/docentes/Flores Ovalle Victor - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Mat</t>
   </si>
@@ -73,37 +73,46 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>CANCINO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
-    <t>CANCINO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>ISIDRO</t>
   </si>
   <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>ISIDRO</t>
+    <t>AMARELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>JOEL EDUARDO</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
   </si>
   <si>
     <t>ITZEL</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>JOEL EDUARDO</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
   </si>
 </sst>
 </file>
@@ -743,7 +752,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -778,16 +787,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920202</v>
+        <v>20330051920198</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -807,10 +816,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -830,10 +839,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -850,13 +859,13 @@
         <v>18330051920245</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -866,6 +875,29 @@
       </c>
       <c r="G5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
